--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatD.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatD.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="24" windowWidth="14340" windowHeight="4512" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>
@@ -200,12 +205,15 @@
   </si>
   <si>
     <t>TwoWeekly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -290,6 +298,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -337,7 +348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,9 +381,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,6 +433,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -580,22 +625,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,7 +654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -623,7 +668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -637,7 +682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -651,7 +696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -665,7 +710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -679,7 +724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -700,24 +745,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="58.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="58.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -740,7 +785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -757,7 +802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -774,7 +819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
@@ -791,7 +836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
@@ -808,7 +853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -825,7 +870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>27</v>
       </c>
@@ -842,7 +887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
@@ -859,7 +904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
@@ -876,7 +921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
@@ -893,7 +938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -910,7 +955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
@@ -927,7 +972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>33</v>
       </c>
@@ -944,7 +989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
@@ -961,7 +1006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -978,7 +1023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>36</v>
       </c>
@@ -1002,26 +1047,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="48.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="61.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="48.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="61.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
@@ -1062,7 +1107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>50</v>
       </c>
@@ -1097,7 +1142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>50</v>
       </c>
@@ -1132,7 +1177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>50</v>
       </c>
@@ -1167,7 +1212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>50</v>
       </c>
@@ -1202,7 +1247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>50</v>
       </c>
@@ -1237,7 +1282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>50</v>
       </c>
@@ -1272,7 +1317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>50</v>
       </c>
@@ -1307,7 +1352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>50</v>
       </c>
@@ -1342,7 +1387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>50</v>
       </c>
@@ -1377,7 +1422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>50</v>
       </c>
@@ -1412,7 +1457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>50</v>
       </c>
@@ -1447,7 +1492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>50</v>
       </c>
@@ -1482,7 +1527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>50</v>
       </c>
@@ -1517,7 +1562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>50</v>
       </c>
@@ -1552,7 +1597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>50</v>
       </c>
@@ -1589,45 +1634,45 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E3:E8" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E9" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E10" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E11" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E12" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E13" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E14" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E15" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E16" r:id="rId10" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E3:E8" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E9" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E10" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="E11" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="E12" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="E13" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="E14" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="E15" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="E16" r:id="rId10" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="45.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="61.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="41.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="61.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
@@ -1671,7 +1716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>50</v>
       </c>
@@ -1694,7 +1739,7 @@
         <v>52</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>58</v>
@@ -1711,7 +1756,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatD.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatD.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="61">
   <si>
     <t>TC</t>
   </si>
@@ -183,9 +183,6 @@
     <t>DO NOT TOUCH - PAYROLL AUTOMATION CHECK</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -207,13 +204,13 @@
     <t>TwoWeekly_Payroll</t>
   </si>
   <si>
-    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201516\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -625,7 +622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -745,7 +742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1047,11 +1044,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,7 +1112,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>21</v>
@@ -1124,19 +1121,19 @@
         <v>51</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>6</v>
@@ -1150,7 +1147,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>21</v>
@@ -1159,19 +1156,19 @@
         <v>51</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>6</v>
@@ -1185,7 +1182,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>21</v>
@@ -1194,19 +1191,19 @@
         <v>51</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>6</v>
@@ -1220,7 +1217,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>21</v>
@@ -1229,19 +1226,19 @@
         <v>51</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>6</v>
@@ -1255,7 +1252,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>21</v>
@@ -1264,19 +1261,19 @@
         <v>51</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>6</v>
@@ -1290,7 +1287,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>21</v>
@@ -1299,19 +1296,19 @@
         <v>51</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>6</v>
@@ -1325,7 +1322,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>21</v>
@@ -1334,19 +1331,19 @@
         <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>6</v>
@@ -1360,7 +1357,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>21</v>
@@ -1369,19 +1366,19 @@
         <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>6</v>
@@ -1395,7 +1392,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>21</v>
@@ -1404,19 +1401,19 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>6</v>
@@ -1430,7 +1427,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>21</v>
@@ -1439,19 +1436,19 @@
         <v>51</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>6</v>
@@ -1465,7 +1462,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>21</v>
@@ -1474,19 +1471,19 @@
         <v>51</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>6</v>
@@ -1500,7 +1497,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>21</v>
@@ -1509,19 +1506,19 @@
         <v>51</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>6</v>
@@ -1535,7 +1532,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>21</v>
@@ -1544,19 +1541,19 @@
         <v>51</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>6</v>
@@ -1570,7 +1567,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>21</v>
@@ -1579,19 +1576,19 @@
         <v>51</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="J15" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>6</v>
@@ -1605,7 +1602,7 @@
         <v>36</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>21</v>
@@ -1614,19 +1611,19 @@
         <v>51</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>6</v>
@@ -1634,26 +1631,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E3:E8" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E9" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="E10" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="E11" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="E12" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="E13" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="E14" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="E15" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="E16" r:id="rId10" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E3:E8" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E9" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E10" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E11" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E12" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E13" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E14" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E15" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E16" r:id="rId10" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1704,7 +1701,7 @@
         <v>49</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>2</v>
@@ -1724,7 +1721,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>21</v>
@@ -1733,22 +1730,22 @@
         <v>51</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>6</v>
@@ -1756,7 +1753,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
